--- a/INDIVIDUAL_ARGUMENTS/uniform_contra.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/uniform_contra.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="173" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>#id</t>
   </si>
@@ -29,208 +28,313 @@
     <t>I truly believe that wearing uniform is bad, because it is not helping to student to express his/her individuality. It is also very uncomfortable , and during winter time might very cold as well. That is why schools shouldn't force students to wear uniform.</t>
   </si>
   <si>
+    <t>257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
+  </si>
+  <si>
     <t>arg236737</t>
   </si>
   <si>
     <t>I think it is bad to wear school uniform because it makes you look unatrel and you cannot express yourself enough so band school uniform OK.</t>
   </si>
   <si>
+    <t>140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg251309</t>
   </si>
   <si>
     <t>The school my mother works at, plus the school district my cousin's 3 children are in, are utilizing school uniforms. One reason is to "reduce bullying", which in reality, doesn't even address the problem concerning bullying. The only good it does is that it gets rid of or reduces students being bullied because they aren't wearing a specific clothing label that they dictate is the IN thing to wear. While it's a problem, all it does is sweep the one basic type of bullying under the rug. Kids will find other reasons to bully others. It also infringes upon their basic rights to be individuals and to express their individuality.</t>
   </si>
   <si>
+    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17</t>
+  </si>
+  <si>
     <t>arg203444</t>
   </si>
   <si>
     <t>Their gay! Actually this is just experience... I'm not gay but all the kids that are at my h-school are trying to get a petition signed for uniforms.</t>
   </si>
   <si>
+    <t>149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg352482</t>
   </si>
   <si>
     <t>Students should be allowed to express them selves.. and with the uniform .. well they are all the same... thats boring.</t>
   </si>
   <si>
+    <t>119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg199549</t>
   </si>
   <si>
     <t>Another reason argued against school uniforms is that they deprive the children of their individuality. The stress on a uniform dress code in school opposes the spirit of unity in diversity and its celebration. It is even claimed to restrict socialization, a vital aspect of human nature.</t>
   </si>
   <si>
+    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0</t>
+  </si>
+  <si>
     <t>arg233332</t>
   </si>
   <si>
     <t>Only in private schools and even there I would only agree with it because its a voluntary association. You see I think school uniforms supress free speech, and take away from a youth's individuality.</t>
   </si>
   <si>
+    <t>199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg252467</t>
   </si>
   <si>
     <t>i dont think its a good idea to keep restrictions becoz thats just going to make students especialy teens more hungry for fashion .its better 2 feed them than keeping them hungry.and once they r away from these restrictions,we will c d othr side of them which is way worse with no morals.so alow people 2 b free with their personalities instead of stoping them.</t>
   </si>
   <si>
+    <t>361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg198939</t>
   </si>
   <si>
     <t>The last thing which a school ought to do is attempt to hinder the creative expression - the individuality - of their still-developing children.</t>
   </si>
   <si>
+    <t>144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
+  </si>
+  <si>
     <t>arg231770</t>
   </si>
   <si>
     <t>i thik thier bad because i think ushould be free with out nobody telling u wat to do.</t>
   </si>
   <si>
+    <t>85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg238471</t>
   </si>
   <si>
     <t>I take the view that, school uniform is very comfortable. Because there is the gap between the rich and poor, school uniform is efficient in many ways. If they wore to plain clothes every day, they concerned about clothes by brand and quantity of clothes. Every teenager is sensible so the poor students can feel inferior. Although school uniform is very expensive , it is cheap better than plain clothes. Also they feel sense of kinship and sense of belonging. In my case, school uniform is convenient. I don't have to worry about my clothes during my student days.</t>
   </si>
   <si>
+    <t>566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17</t>
+  </si>
+  <si>
     <t>arg205531</t>
   </si>
   <si>
     <t>uniform sucks. wearing uniform doesn't mean better learning at school (students go to school to learn to prepare for their future, not to waste money to buy uniform ).. NO CONNECTION BETWEEN UNIFORM WORN N SCHOOL RESULTS...</t>
   </si>
   <si>
+    <t>223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg198926</t>
   </si>
   <si>
     <t>When there young and trying to find them selves there is no need to get rid of there independence. I vote bad.</t>
   </si>
   <si>
+    <t>110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg386882</t>
   </si>
   <si>
     <t>Bad. I'm too lazy to explain why so take my word for it. I had to wear one for 4 years at school.</t>
   </si>
   <si>
+    <t>97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg200706</t>
   </si>
   <si>
     <t>We talk about how schools destroy creativity and uniforms are a classic example of that destruction. In most schools with uniforms the students are given the occasional day to were their casual clothes but are then given strict guidelines as to what is acceptable. This is effectively turning "casual clothes" into a twisted "causal" uniform.</t>
   </si>
   <si>
+    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg339127</t>
   </si>
   <si>
     <t>people cant be forced to wear school uniforms, i mean each person has theri own wish whether they want to or dont want to wear school uniforms. I think each principal should think once again regarding the uniforms</t>
   </si>
   <si>
+    <t>213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg251373</t>
   </si>
   <si>
     <t>Schools should not create dress codes.  On one hand, yes, uniforms help student focus more on thier work. On another, uniforms also help with keeping order in a school(kids are highly impressionable... etc.....). But kids are allowed ot have thier own creativity.  Just like any other law or code, they can have specific rules to prevent wearing certain things.</t>
   </si>
   <si>
+    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg287477</t>
   </si>
   <si>
     <t>it dose not show kids expressions and unforms dose not show is it</t>
   </si>
   <si>
+    <t>65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg554188</t>
   </si>
   <si>
     <t>School uniforms are a BAD idea. Kids won't be able to show their color.</t>
   </si>
   <si>
+    <t>71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg284049</t>
   </si>
   <si>
     <t>students should wear what they like and feel free about their clothes.</t>
   </si>
   <si>
+    <t>70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg199159</t>
   </si>
   <si>
     <t>I want to mention about wearing school uniform by high school students. it really makes no sense, it's the opposite, it just makes troubles within students and teachers relations. People aged 16-18 do not like any limits and sometimes limiting their freedom can become very serious problem followed by misunderstandings with the rest of people like parents and teachers. What about the controlling person's behavior - it must be done in the childhood, but not in the age when students become adults.</t>
   </si>
   <si>
+    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17</t>
+  </si>
+  <si>
     <t>arg238473</t>
   </si>
   <si>
     <t>Another reason for wearing a school uniform is good is that the uniform will always be decent. It will cover every part of the body that the school doesnt want the children to show and the students would not be cauntious about what they are wearing.</t>
   </si>
   <si>
+    <t>249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg203931</t>
   </si>
   <si>
     <t>Very Very bad!!  Though I Know im going to miss the days to wear a uniform!!  So When IN a student I hate wearing uniforms  And  When Im a college student I MISS wearing their Uniform!!:d</t>
   </si>
   <si>
+    <t>187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg198306</t>
   </si>
   <si>
     <t>School uniform cant save person out of cold or heat like special clothes.</t>
   </si>
   <si>
+    <t>73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg199550</t>
   </si>
   <si>
     <t>In comparison to civil dress, school uniforms prove to be futile and wasteful once the child is out of school.</t>
   </si>
   <si>
+    <t>110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17</t>
+  </si>
+  <si>
     <t>arg198296</t>
   </si>
   <si>
     <t>It is in not comfortable when you sit for an hours in a classroom.</t>
   </si>
   <si>
+    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg202425</t>
   </si>
   <si>
     <t>Kids don't want to wear the same clothes every day I know I would hate it.</t>
   </si>
   <si>
+    <t>74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg238468</t>
   </si>
   <si>
     <t>I have always maintained that it is a good idea to wear a uniform to school. Why not? because it looks very nice and respectful. This shows the status of schools and students. I always liked to wear a uniform at my school, I felt like a schoolgirl, and brought up.</t>
   </si>
   <si>
+    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg580099</t>
   </si>
   <si>
     <t>Students have the right way to feel and express but it's wrong it's the learning which makes us smart</t>
   </si>
   <si>
+    <t>101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg202290</t>
   </si>
   <si>
     <t>in my own personal opinion i think that school uniforms are not a good idea. adults are always telling us to be our selfes and to express who we really are. but we cant do that while wearing a stupid uniform to school!!</t>
   </si>
   <si>
+    <t>219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg237112</t>
   </si>
   <si>
     <t>because your own clothes are coolio hoolio, and if you get to wear what you want its coolio hoolio.</t>
   </si>
   <si>
+    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg336277</t>
   </si>
   <si>
     <t>the kids lose their individuality and it doesn't feel comfortable.</t>
   </si>
   <si>
+    <t>66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg251644</t>
   </si>
   <si>
     <t>When yr out of college or High School or whatever, like in a office. You have to choose yr own clothing.</t>
   </si>
   <si>
+    <t>104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg207279</t>
   </si>
   <si>
     <t>i think we should not wear school cloths because their so weird and the good reason why is that no more bulling and also THERE DUMB STUPID AND GAY.</t>
   </si>
   <si>
+    <t>147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg283557</t>
   </si>
   <si>
     <t>I think that school uniform is a bad idea because its too much work to clean the uniform and its a pain if you have to put on a lot of stuff in the morning.</t>
+  </si>
+  <si>
+    <t>156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
   </si>
 </sst>
 </file>
@@ -238,40 +342,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -279,361 +387,735 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B39" activeCellId="0" pane="topLeft" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="155.59693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.90816326530612"/>
+    <col customWidth="1" max="2" min="2" style="1" width="155.59693877551"/>
+    <col customWidth="1" max="1025" min="3" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row customHeight="1" s="1" r="1" ht="12.8" spans="1:3">
+      <c s="0" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c s="0" r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row customHeight="1" s="1" r="2" ht="12.8" spans="1:3">
+      <c s="0" r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c s="0" r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="3" ht="12.8" spans="1:3">
+      <c s="0" r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c s="0" r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row customHeight="1" s="1" r="4" ht="12.8" spans="1:3">
+      <c s="0" r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c s="0" r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="5" ht="12.8" spans="1:3">
+      <c s="0" r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c s="0" r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row customHeight="1" s="1" r="6" ht="12.8" spans="1:3">
+      <c s="0" r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c s="0" r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="7" ht="12.8" spans="1:3">
+      <c s="0" r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c s="0" r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row customHeight="1" s="1" r="8" ht="12.8" spans="1:3">
+      <c s="0" r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c s="0" r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="9" ht="12.8" spans="1:3">
+      <c s="0" r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c s="0" r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row customHeight="1" s="1" r="10" ht="12.8" spans="1:3">
+      <c s="0" r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c s="0" r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="11" ht="12.8" spans="1:3">
+      <c s="0" r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c s="0" r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row customHeight="1" s="1" r="12" ht="12.8" spans="1:3">
+      <c s="0" r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c s="0" r="B12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="13" ht="12.8" spans="1:3">
+      <c s="0" r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c s="0" r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row customHeight="1" s="1" r="14" ht="12.8" spans="1:3">
+      <c s="0" r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c s="0" r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="15" ht="12.8" spans="1:3">
+      <c s="0" r="A15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c s="0" r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row customHeight="1" s="1" r="16" ht="12.8" spans="1:3">
+      <c s="0" r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c s="0" r="B16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="17" ht="12.8" spans="1:3">
+      <c s="0" r="A17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c s="0" r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row customHeight="1" s="1" r="18" ht="12.8" spans="1:3">
+      <c s="0" r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c s="0" r="B18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="19" ht="12.8" spans="1:3">
+      <c s="0" r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c s="0" r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row customHeight="1" s="1" r="20" ht="12.8" spans="1:3">
+      <c s="0" r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c s="0" r="B20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="21" ht="12.8" spans="1:3">
+      <c s="0" r="A21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c s="0" r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row customHeight="1" s="1" r="22" ht="12.8" spans="1:3">
+      <c s="0" r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c s="0" r="B22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="23" ht="12.8" spans="1:3">
+      <c s="0" r="A23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c s="0" r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row customHeight="1" s="1" r="24" ht="12.8" spans="1:3">
+      <c s="0" r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c s="0" r="B24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="25" ht="12.8" spans="1:3">
+      <c s="0" r="A25" t="s">
         <v>71</v>
       </c>
+      <c s="0" r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="26" ht="12.8" spans="1:3">
+      <c s="0" r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c s="0" r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="27" ht="12.8" spans="1:3">
+      <c s="0" r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c s="0" r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="28" ht="12.8" spans="1:3">
+      <c s="0" r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c s="0" r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="29" ht="12.8" spans="1:3">
+      <c s="0" r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c s="0" r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="30" ht="12.8" spans="1:3">
+      <c s="0" r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c s="0" r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="31" ht="12.8" spans="1:3">
+      <c s="0" r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c s="0" r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="32" ht="12.8" spans="1:3">
+      <c s="0" r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c s="0" r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="33" ht="12.8" spans="1:3">
+      <c s="0" r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c s="0" r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="34" ht="12.8" spans="1:3">
+      <c s="0" r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c s="0" r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="35" ht="12.8" spans="1:3">
+      <c s="0" r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c s="0" r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="36" ht="12.8" spans="1:3">
+      <c s="0" r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c s="0" r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INDIVIDUAL_ARGUMENTS/uniform_contra.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/uniform_contra.xlsx
@@ -28,7 +28,7 @@
     <t>I truly believe that wearing uniform is bad, because it is not helping to student to express his/her individuality. It is also very uncomfortable , and during winter time might very cold as well. That is why schools shouldn't force students to wear uniform.</t>
   </si>
   <si>
-    <t>257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
+    <t>14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
   </si>
   <si>
     <t>arg236737</t>
@@ -37,7 +37,7 @@
     <t>I think it is bad to wear school uniform because it makes you look unatrel and you cannot express yourself enough so band school uniform OK.</t>
   </si>
   <si>
-    <t>140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0</t>
+    <t>26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0</t>
   </si>
   <si>
     <t>arg251309</t>
@@ -46,7 +46,7 @@
     <t>The school my mother works at, plus the school district my cousin's 3 children are in, are utilizing school uniforms. One reason is to "reduce bullying", which in reality, doesn't even address the problem concerning bullying. The only good it does is that it gets rid of or reduces students being bullied because they aren't wearing a specific clothing label that they dictate is the IN thing to wear. While it's a problem, all it does is sweep the one basic type of bullying under the rug. Kids will find other reasons to bully others. It also infringes upon their basic rights to be individuals and to express their individuality.</t>
   </si>
   <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17</t>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18</t>
   </si>
   <si>
     <t>arg203444</t>
@@ -55,7 +55,7 @@
     <t>Their gay! Actually this is just experience... I'm not gay but all the kids that are at my h-school are trying to get a petition signed for uniforms.</t>
   </si>
   <si>
-    <t>149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29</t>
   </si>
   <si>
     <t>arg352482</t>
@@ -64,7 +64,7 @@
     <t>Students should be allowed to express them selves.. and with the uniform .. well they are all the same... thats boring.</t>
   </si>
   <si>
-    <t>119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2</t>
   </si>
   <si>
     <t>arg199549</t>
@@ -73,7 +73,7 @@
     <t>Another reason argued against school uniforms is that they deprive the children of their individuality. The stress on a uniform dress code in school opposes the spirit of unity in diversity and its celebration. It is even claimed to restrict socialization, a vital aspect of human nature.</t>
   </si>
   <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0</t>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14</t>
   </si>
   <si>
     <t>arg233332</t>
@@ -82,7 +82,7 @@
     <t>Only in private schools and even there I would only agree with it because its a voluntary association. You see I think school uniforms supress free speech, and take away from a youth's individuality.</t>
   </si>
   <si>
-    <t>199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
   </si>
   <si>
     <t>arg252467</t>
@@ -91,7 +91,7 @@
     <t>i dont think its a good idea to keep restrictions becoz thats just going to make students especialy teens more hungry for fashion .its better 2 feed them than keeping them hungry.and once they r away from these restrictions,we will c d othr side of them which is way worse with no morals.so alow people 2 b free with their personalities instead of stoping them.</t>
   </si>
   <si>
-    <t>361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14</t>
   </si>
   <si>
     <t>arg198939</t>
@@ -100,7 +100,7 @@
     <t>The last thing which a school ought to do is attempt to hinder the creative expression - the individuality - of their still-developing children.</t>
   </si>
   <si>
-    <t>144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
+    <t>24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
   </si>
   <si>
     <t>arg231770</t>
@@ -109,7 +109,7 @@
     <t>i thik thier bad because i think ushould be free with out nobody telling u wat to do.</t>
   </si>
   <si>
-    <t>85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
+    <t>18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86</t>
   </si>
   <si>
     <t>arg238471</t>
@@ -118,7 +118,7 @@
     <t>I take the view that, school uniform is very comfortable. Because there is the gap between the rich and poor, school uniform is efficient in many ways. If they wore to plain clothes every day, they concerned about clothes by brand and quantity of clothes. Every teenager is sensible so the poor students can feel inferior. Although school uniform is very expensive , it is cheap better than plain clothes. Also they feel sense of kinship and sense of belonging. In my case, school uniform is convenient. I don't have to worry about my clothes during my student days.</t>
   </si>
   <si>
-    <t>566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17</t>
+    <t>12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14</t>
   </si>
   <si>
     <t>arg205531</t>
@@ -127,7 +127,7 @@
     <t>uniform sucks. wearing uniform doesn't mean better learning at school (students go to school to learn to prepare for their future, not to waste money to buy uniform ).. NO CONNECTION BETWEEN UNIFORM WORN N SCHOOL RESULTS...</t>
   </si>
   <si>
-    <t>223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15</t>
   </si>
   <si>
     <t>arg198926</t>
@@ -136,7 +136,7 @@
     <t>When there young and trying to find them selves there is no need to get rid of there independence. I vote bad.</t>
   </si>
   <si>
-    <t>110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33</t>
   </si>
   <si>
     <t>arg386882</t>
@@ -145,7 +145,7 @@
     <t>Bad. I'm too lazy to explain why so take my word for it. I had to wear one for 4 years at school.</t>
   </si>
   <si>
-    <t>97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71</t>
   </si>
   <si>
     <t>arg200706</t>
@@ -154,7 +154,7 @@
     <t>We talk about how schools destroy creativity and uniforms are a classic example of that destruction. In most schools with uniforms the students are given the occasional day to were their casual clothes but are then given strict guidelines as to what is acceptable. This is effectively turning "casual clothes" into a twisted "causal" uniform.</t>
   </si>
   <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0</t>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84</t>
   </si>
   <si>
     <t>arg339127</t>
@@ -163,7 +163,7 @@
     <t>people cant be forced to wear school uniforms, i mean each person has theri own wish whether they want to or dont want to wear school uniforms. I think each principal should think once again regarding the uniforms</t>
   </si>
   <si>
-    <t>213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88</t>
   </si>
   <si>
     <t>arg251373</t>
@@ -172,7 +172,7 @@
     <t>Schools should not create dress codes.  On one hand, yes, uniforms help student focus more on thier work. On another, uniforms also help with keeping order in a school(kids are highly impressionable... etc.....). But kids are allowed ot have thier own creativity.  Just like any other law or code, they can have specific rules to prevent wearing certain things.</t>
   </si>
   <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24</t>
   </si>
   <si>
     <t>arg287477</t>
@@ -181,7 +181,7 @@
     <t>it dose not show kids expressions and unforms dose not show is it</t>
   </si>
   <si>
-    <t>65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+    <t>13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2</t>
   </si>
   <si>
     <t>arg554188</t>
@@ -190,7 +190,7 @@
     <t>School uniforms are a BAD idea. Kids won't be able to show their color.</t>
   </si>
   <si>
-    <t>71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
+    <t>7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29</t>
   </si>
   <si>
     <t>arg284049</t>
@@ -199,7 +199,7 @@
     <t>students should wear what they like and feel free about their clothes.</t>
   </si>
   <si>
-    <t>70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
+    <t>12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4</t>
   </si>
   <si>
     <t>arg199159</t>
@@ -208,7 +208,7 @@
     <t>I want to mention about wearing school uniform by high school students. it really makes no sense, it's the opposite, it just makes troubles within students and teachers relations. People aged 16-18 do not like any limits and sometimes limiting their freedom can become very serious problem followed by misunderstandings with the rest of people like parents and teachers. What about the controlling person's behavior - it must be done in the childhood, but not in the age when students become adults.</t>
   </si>
   <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17</t>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46</t>
   </si>
   <si>
     <t>arg238473</t>
@@ -217,7 +217,7 @@
     <t>Another reason for wearing a school uniform is good is that the uniform will always be decent. It will cover every part of the body that the school doesnt want the children to show and the students would not be cauntious about what they are wearing.</t>
   </si>
   <si>
-    <t>249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
+    <t>23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15</t>
   </si>
   <si>
     <t>arg203931</t>
@@ -226,7 +226,7 @@
     <t>Very Very bad!!  Though I Know im going to miss the days to wear a uniform!!  So When IN a student I hate wearing uniforms  And  When Im a college student I MISS wearing their Uniform!!:d</t>
   </si>
   <si>
-    <t>187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
   </si>
   <si>
     <t>arg198306</t>
@@ -235,7 +235,7 @@
     <t>School uniform cant save person out of cold or heat like special clothes.</t>
   </si>
   <si>
-    <t>73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13</t>
   </si>
   <si>
     <t>arg199550</t>
@@ -244,7 +244,7 @@
     <t>In comparison to civil dress, school uniforms prove to be futile and wasteful once the child is out of school.</t>
   </si>
   <si>
-    <t>110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17</t>
+    <t>20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56</t>
   </si>
   <si>
     <t>arg198296</t>
@@ -253,7 +253,7 @@
     <t>It is in not comfortable when you sit for an hours in a classroom.</t>
   </si>
   <si>
-    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
+    <t>14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5</t>
   </si>
   <si>
     <t>arg202425</t>
@@ -262,7 +262,7 @@
     <t>Kids don't want to wear the same clothes every day I know I would hate it.</t>
   </si>
   <si>
-    <t>74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4</t>
   </si>
   <si>
     <t>arg238468</t>
@@ -271,7 +271,7 @@
     <t>I have always maintained that it is a good idea to wear a uniform to school. Why not? because it looks very nice and respectful. This shows the status of schools and students. I always liked to wear a uniform at my school, I felt like a schoolgirl, and brought up.</t>
   </si>
   <si>
-    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0</t>
+    <t>10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5</t>
   </si>
   <si>
     <t>arg580099</t>
@@ -280,7 +280,7 @@
     <t>Students have the right way to feel and express but it's wrong it's the learning which makes us smart</t>
   </si>
   <si>
-    <t>101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+    <t>19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71</t>
   </si>
   <si>
     <t>arg202290</t>
@@ -289,7 +289,7 @@
     <t>in my own personal opinion i think that school uniforms are not a good idea. adults are always telling us to be our selfes and to express who we really are. but we cant do that while wearing a stupid uniform to school!!</t>
   </si>
   <si>
-    <t>219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+    <t>10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
   </si>
   <si>
     <t>arg237112</t>
@@ -298,7 +298,7 @@
     <t>because your own clothes are coolio hoolio, and if you get to wear what you want its coolio hoolio.</t>
   </si>
   <si>
-    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5</t>
   </si>
   <si>
     <t>arg336277</t>
@@ -307,7 +307,7 @@
     <t>the kids lose their individuality and it doesn't feel comfortable.</t>
   </si>
   <si>
-    <t>66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6</t>
   </si>
   <si>
     <t>arg251644</t>
@@ -316,7 +316,7 @@
     <t>When yr out of college or High School or whatever, like in a office. You have to choose yr own clothing.</t>
   </si>
   <si>
-    <t>104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57</t>
   </si>
   <si>
     <t>arg207279</t>
@@ -325,7 +325,7 @@
     <t>i think we should not wear school cloths because their so weird and the good reason why is that no more bulling and also THERE DUMB STUPID AND GAY.</t>
   </si>
   <si>
-    <t>147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0</t>
+    <t>29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4</t>
   </si>
   <si>
     <t>arg283557</t>
@@ -334,7 +334,7 @@
     <t>I think that school uniform is a bad idea because its too much work to clean the uniform and its a pain if you have to put on a lot of stuff in the morning.</t>
   </si>
   <si>
-    <t>156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18</t>
   </si>
 </sst>
 </file>
